--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C37B5-C6D3-46E8-8B5E-67EFF4A8A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$91</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,812 +28,925 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="265">
-  <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference Identity Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة الهوية المرجعية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte d'identité de référence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rental contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rental Agreement of address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عقد ايجار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اتفاقية تأجير العنوان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrat de location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrat de location dadresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate of residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proof of Resident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شهادة الاقامة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إثبات مقيم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificat de résidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preuve de résidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proof of Idendity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جواز سفر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إثبات الفكر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passeport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preuve didentité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate of Relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proof relationship of a person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شهادة القرابة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إثبات علاقة الشخص</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificat de relation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preuve de relation dune personne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proof birth and age of a person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شهادة الميلاد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إثبات ولادة الشخص وعمره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificat de naissance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preuve de naissance et âge dune personne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certification of Exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate of Exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شهادة الاستثناء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certification dexception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Either Ration or PDS Photo card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voter Identification card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driving licence of the applicant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo identification cards issued by the Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service photo ID cards that is issued by a PSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licence of Arms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo Bank ATM card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo Credit card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo card of the Freedom Fighter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate of Marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passbook or Bank Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account statement or passbook of the Post Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ration Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSU issued Service photo ID card with address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous 3 months’ electricity bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water bill as long as it is not more than 3 months’ old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDS Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical card issued by the State Govt, CGHS, ECHS and ESIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical card issued by the State Government, CGHS, ECHS and also ESIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canteen card of the Army</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family entitlement document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any family entitlement document issued by any Central or State Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth Certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrar of Birth/municipal Corporation or any local government Birth Certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte PAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soit ration ou PDS photo carte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte d’identification des électeurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permis de conduire du demandeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartes d’identité photo émises par le gouvernement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartes d’identité de service de photo émises par un PSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licence d’armes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo banque carte bancaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte de crédit photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte photo du Freedom Fighter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificat de mariage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livret ou relevé bancaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevé de compte ou livret du Bureau de poste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte de ration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSU a émis la carte didentité de photo de service avec ladresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSU a émis la carte d’identité de photo de service avec l’adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facture d’électricité précédente de 3 mois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facture d’eau tant qu’elle n’a pas plus de 3 mois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte PDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte médicale délivrée par le govt de l'État</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte médicale délivrée par le gouvernement de l’État, le CGHS, l’ECHS et également l’ESIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carte de cantine de l’armée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre de droit familial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tout document de droit de la famille délivré par un gouvernement central ou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registraire de naissance/municipalité ou tout acte de naissance du gouvernement local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expetion Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo d exception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة الطعام</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="304">
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>Reference Identity Card</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>بطاقة الهوية المرجعية</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>Carte d'identité de référence</t>
+  </si>
+  <si>
+    <t>RNC</t>
+  </si>
+  <si>
+    <t>Rental contract</t>
+  </si>
+  <si>
+    <t>Rental Agreement of address</t>
+  </si>
+  <si>
+    <t>عقد ايجار</t>
+  </si>
+  <si>
+    <t>اتفاقية تأجير العنوان</t>
+  </si>
+  <si>
+    <t>Contrat de location</t>
+  </si>
+  <si>
+    <t>Contrat de location dadresse</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>Certificate of residence</t>
+  </si>
+  <si>
+    <t>Proof of Resident</t>
+  </si>
+  <si>
+    <t>شهادة الاقامة</t>
+  </si>
+  <si>
+    <t>إثبات مقيم</t>
+  </si>
+  <si>
+    <t>Certificat de résidence</t>
+  </si>
+  <si>
+    <t>Preuve de résidence</t>
+  </si>
+  <si>
+    <t>DOC001</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Proof of Idendity</t>
+  </si>
+  <si>
+    <t>جواز سفر</t>
+  </si>
+  <si>
+    <t>إثبات الفكر</t>
+  </si>
+  <si>
+    <t>Passeport</t>
+  </si>
+  <si>
+    <t>Preuve didentité</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>Certificate of Relationship</t>
+  </si>
+  <si>
+    <t>Proof relationship of a person</t>
+  </si>
+  <si>
+    <t>شهادة القرابة</t>
+  </si>
+  <si>
+    <t>إثبات علاقة الشخص</t>
+  </si>
+  <si>
+    <t>Certificat de relation</t>
+  </si>
+  <si>
+    <t>Preuve de relation dune personne</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>Certificate of Birth</t>
+  </si>
+  <si>
+    <t>Proof birth and age of a person</t>
+  </si>
+  <si>
+    <t>شهادة الميلاد</t>
+  </si>
+  <si>
+    <t>إثبات ولادة الشخص وعمره</t>
+  </si>
+  <si>
+    <t>Certificat de naissance</t>
+  </si>
+  <si>
+    <t>Preuve de naissance et âge dune personne</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>Certification of Exception</t>
+  </si>
+  <si>
+    <t>Certificate of Exception</t>
+  </si>
+  <si>
+    <t>شهادة الاستثناء</t>
+  </si>
+  <si>
+    <t>Certification dexception</t>
+  </si>
+  <si>
+    <t>DOC002</t>
+  </si>
+  <si>
+    <t>PAN card</t>
+  </si>
+  <si>
+    <t>DOC003</t>
+  </si>
+  <si>
+    <t>Either Ration or PDS Photo card</t>
+  </si>
+  <si>
+    <t>DOC004</t>
+  </si>
+  <si>
+    <t>Voter Identification card</t>
+  </si>
+  <si>
+    <t>DOC005</t>
+  </si>
+  <si>
+    <t>Driving licence of the applicant</t>
+  </si>
+  <si>
+    <t>DOC006</t>
+  </si>
+  <si>
+    <t>Photo identification cards issued by the Government</t>
+  </si>
+  <si>
+    <t>DOC007</t>
+  </si>
+  <si>
+    <t>Service photo ID cards that is issued by a PSU</t>
+  </si>
+  <si>
+    <t>DOC008</t>
+  </si>
+  <si>
+    <t>Licence of Arms</t>
+  </si>
+  <si>
+    <t>DOC009</t>
+  </si>
+  <si>
+    <t>Photo Bank ATM card</t>
+  </si>
+  <si>
+    <t>DOC010</t>
+  </si>
+  <si>
+    <t>Photo Credit card</t>
+  </si>
+  <si>
+    <t>DOC011</t>
+  </si>
+  <si>
+    <t>Photo card of the Freedom Fighter</t>
+  </si>
+  <si>
+    <t>DOC012</t>
+  </si>
+  <si>
+    <t>Certificate of Marriage</t>
+  </si>
+  <si>
+    <t>DOC013</t>
+  </si>
+  <si>
+    <t>Passbook or Bank Statement</t>
+  </si>
+  <si>
+    <t>DOC014</t>
+  </si>
+  <si>
+    <t>Account statement or passbook of the Post Office</t>
+  </si>
+  <si>
+    <t>DOC015</t>
+  </si>
+  <si>
+    <t>Ration Card</t>
+  </si>
+  <si>
+    <t>DOC016</t>
+  </si>
+  <si>
+    <t>PSU issued Service photo ID card with address</t>
+  </si>
+  <si>
+    <t>DOC017</t>
+  </si>
+  <si>
+    <t>Previous 3 months’ electricity bill</t>
+  </si>
+  <si>
+    <t>DOC018</t>
+  </si>
+  <si>
+    <t>Water bill as long as it is not more than 3 months’ old</t>
+  </si>
+  <si>
+    <t>DOC024</t>
+  </si>
+  <si>
+    <t>PDS Card</t>
+  </si>
+  <si>
+    <t>DOC025</t>
+  </si>
+  <si>
+    <t>Medical card issued by the State Govt, CGHS, ECHS and ESIC</t>
+  </si>
+  <si>
+    <t>Medical card issued by the State Government, CGHS, ECHS and also ESIC</t>
+  </si>
+  <si>
+    <t>DOC026</t>
+  </si>
+  <si>
+    <t>Canteen card of the Army</t>
+  </si>
+  <si>
+    <t>DOC027</t>
+  </si>
+  <si>
+    <t>Family entitlement document</t>
+  </si>
+  <si>
+    <t>Any family entitlement document issued by any Central or State Government</t>
+  </si>
+  <si>
+    <t>DOC028</t>
+  </si>
+  <si>
+    <t>Birth Certificate</t>
+  </si>
+  <si>
+    <t>Registrar of Birth/municipal Corporation or any local government Birth Certificate</t>
+  </si>
+  <si>
+    <t>Carte PAN</t>
+  </si>
+  <si>
+    <t>Soit ration ou PDS photo carte</t>
+  </si>
+  <si>
+    <t>Carte d’identification des électeurs</t>
+  </si>
+  <si>
+    <t>Permis de conduire du demandeur</t>
+  </si>
+  <si>
+    <t>Cartes d’identité photo émises par le gouvernement</t>
+  </si>
+  <si>
+    <t>Cartes d’identité de service de photo émises par un PSU</t>
+  </si>
+  <si>
+    <t>Licence d’armes</t>
+  </si>
+  <si>
+    <t>Photo banque carte bancaire</t>
+  </si>
+  <si>
+    <t>Carte de crédit photo</t>
+  </si>
+  <si>
+    <t>Carte photo du Freedom Fighter</t>
+  </si>
+  <si>
+    <t>Certificat de mariage</t>
+  </si>
+  <si>
+    <t>Livret ou relevé bancaire</t>
+  </si>
+  <si>
+    <t>Relevé de compte ou livret du Bureau de poste</t>
+  </si>
+  <si>
+    <t>Carte de ration</t>
+  </si>
+  <si>
+    <t>PSU a émis la carte didentité de photo de service avec ladresse</t>
+  </si>
+  <si>
+    <t>PSU a émis la carte d’identité de photo de service avec l’adresse</t>
+  </si>
+  <si>
+    <t>Facture d’électricité précédente de 3 mois</t>
+  </si>
+  <si>
+    <t>Facture d’eau tant qu’elle n’a pas plus de 3 mois</t>
+  </si>
+  <si>
+    <t>Carte PDS</t>
+  </si>
+  <si>
+    <t>Carte médicale délivrée par le govt de l'État</t>
+  </si>
+  <si>
+    <t>Carte médicale délivrée par le gouvernement de l’État, le CGHS, l’ECHS et également l’ESIC</t>
+  </si>
+  <si>
+    <t>Carte de cantine de l’armée</t>
+  </si>
+  <si>
+    <t>Titre de droit familial</t>
+  </si>
+  <si>
+    <t>Tout document de droit de la famille délivré par un gouvernement central ou</t>
+  </si>
+  <si>
+    <t>Registraire de naissance/municipalité ou tout acte de naissance du gouvernement local</t>
+  </si>
+  <si>
+    <t>EOP</t>
+  </si>
+  <si>
+    <t>Expetion Photo</t>
+  </si>
+  <si>
+    <t>Photo d exception</t>
+  </si>
+  <si>
+    <t>بطاقة الطعام</t>
   </si>
   <si>
     <t xml:space="preserve">إما بطاقة تموينية أو بطاقة صور </t>
   </si>
   <si>
-    <t xml:space="preserve">إما بطاقة تموينية أو بطاقة صور PDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة هوية الناخب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رخصة القيادة لمقدم الطلب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقات هوية مصورة صادرة عن الحكومة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقات هوية تحمل صورة الخدمة الصادرة عن PSU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رخصة السلاح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة الصراف الآلي لبنك الصور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة ائتمان الصور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة مصورة لمقاتل الحرية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عقد زواج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دفتر حسابات أو كشف حساب بنكي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كشف حساب أو دفتر مرور لمكتب البريد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البطاقة التموينية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أصدرت PSU بطاقة هوية تحمل صورة الخدمة مع العنوان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاتورة الكهرباء عن الثلاثة أشهر السابقة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاتورة المياه بشرط ألا تزيد عن 3 أشهر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة PDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة طبية صادرة عن حكومة الدولة و CGHS و ECHS و ESIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بطاقة مقصف للجيش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">وثيقة استحقاق الأسرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أي مستند استحقاق عائلي صادر عن أي حكومة مركزية أو حكومة ولاية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مسجل الميلاد / مؤسسة البلدية أو أي شهادة ميلاد حكومية محلية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إكسبيديشن فوتو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಉಲ್ಲೇಖ ಗುರುತಿನ ಚೀಟಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಬಾಡಿಗೆ ಒಪ್ಪಂದ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವಿಳಾಸದ ಬಾಡಿಗೆ ಒಪ್ಪಂದ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನಿವಾಸದ ಪ್ರಮಾಣಪತ್ರ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನಿವಾಸಿ ಪುರಾವೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪಾಸ್ಪೋರ್ಟ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಗುರುತಿನ ಪುರಾವೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸಂಬಂಧದ ಪ್ರಮಾಣಪತ್ರ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವ್ಯಕ್ತಿಯ ಪುರಾವೆ ಸಂಬಂಧ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಜನನ ಪ್ರಮಾಣಪತ್ರ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವ್ಯಕ್ತಿಯ ಜನನ ಮತ್ತು ವಯಸ್ಸಿನ ಪುರಾವೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವಿನಾಯಿತಿ ಪ್ರಮಾಣೀಕರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN ಕಾರ್ಡ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪಡಿತರ ಅಥವಾ PDS ಫೋಟೋ ಕಾರ್ಡ್</t>
+    <t>إما بطاقة تموينية أو بطاقة صور PDS</t>
+  </si>
+  <si>
+    <t>بطاقة هوية الناخب</t>
+  </si>
+  <si>
+    <t>رخصة القيادة لمقدم الطلب</t>
+  </si>
+  <si>
+    <t>بطاقات هوية مصورة صادرة عن الحكومة</t>
+  </si>
+  <si>
+    <t>بطاقات هوية تحمل صورة الخدمة الصادرة عن PSU</t>
+  </si>
+  <si>
+    <t>رخصة السلاح</t>
+  </si>
+  <si>
+    <t>بطاقة الصراف الآلي لبنك الصور</t>
+  </si>
+  <si>
+    <t>بطاقة ائتمان الصور</t>
+  </si>
+  <si>
+    <t>بطاقة مصورة لمقاتل الحرية</t>
+  </si>
+  <si>
+    <t>عقد زواج</t>
+  </si>
+  <si>
+    <t>دفتر حسابات أو كشف حساب بنكي</t>
+  </si>
+  <si>
+    <t>كشف حساب أو دفتر مرور لمكتب البريد</t>
+  </si>
+  <si>
+    <t>البطاقة التموينية</t>
+  </si>
+  <si>
+    <t>أصدرت PSU بطاقة هوية تحمل صورة الخدمة مع العنوان</t>
+  </si>
+  <si>
+    <t>فاتورة الكهرباء عن الثلاثة أشهر السابقة</t>
+  </si>
+  <si>
+    <t>فاتورة المياه بشرط ألا تزيد عن 3 أشهر</t>
+  </si>
+  <si>
+    <t>بطاقة PDS</t>
+  </si>
+  <si>
+    <t>بطاقة طبية صادرة عن حكومة الدولة و CGHS و ECHS و ESIC</t>
+  </si>
+  <si>
+    <t>بطاقة مقصف للجيش</t>
+  </si>
+  <si>
+    <t>وثيقة استحقاق الأسرة</t>
+  </si>
+  <si>
+    <t>أي مستند استحقاق عائلي صادر عن أي حكومة مركزية أو حكومة ولاية</t>
+  </si>
+  <si>
+    <t>مسجل الميلاد / مؤسسة البلدية أو أي شهادة ميلاد حكومية محلية</t>
+  </si>
+  <si>
+    <t>إكسبيديشن فوتو</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>ಉಲ್ಲೇಖ ಗುರುತಿನ ಚೀಟಿ</t>
+  </si>
+  <si>
+    <t>ಬಾಡಿಗೆ ಒಪ್ಪಂದ</t>
+  </si>
+  <si>
+    <t>ವಿಳಾಸದ ಬಾಡಿಗೆ ಒಪ್ಪಂದ</t>
+  </si>
+  <si>
+    <t>ನಿವಾಸದ ಪ್ರಮಾಣಪತ್ರ</t>
+  </si>
+  <si>
+    <t>ನಿವಾಸಿ ಪುರಾವೆ</t>
+  </si>
+  <si>
+    <t>ಪಾಸ್ಪೋರ್ಟ್</t>
+  </si>
+  <si>
+    <t>ಗುರುತಿನ ಪುರಾವೆ</t>
+  </si>
+  <si>
+    <t>ಸಂಬಂಧದ ಪ್ರಮಾಣಪತ್ರ</t>
+  </si>
+  <si>
+    <t>ವ್ಯಕ್ತಿಯ ಪುರಾವೆ ಸಂಬಂಧ</t>
+  </si>
+  <si>
+    <t>ಜನನ ಪ್ರಮಾಣಪತ್ರ</t>
+  </si>
+  <si>
+    <t>ವ್ಯಕ್ತಿಯ ಜನನ ಮತ್ತು ವಯಸ್ಸಿನ ಪುರಾವೆ</t>
+  </si>
+  <si>
+    <t>ವಿನಾಯಿತಿ ಪ್ರಮಾಣೀಕರಣ</t>
+  </si>
+  <si>
+    <t>PAN ಕಾರ್ಡ್</t>
+  </si>
+  <si>
+    <t>ಪಡಿತರ ಅಥವಾ PDS ಫೋಟೋ ಕಾರ್ಡ್</t>
   </si>
   <si>
     <t xml:space="preserve">ಮತದಾರರ ಗುರುತಿನ ಚೀಟಿ </t>
   </si>
   <si>
-    <t xml:space="preserve">ಮತದಾರರ ಗುರುತಿನ ಚೀಟಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಅರ್ಜಿದಾರರ ಚಾಲನಾ ಪರವಾನಗಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸರ್ಕಾರವು ನೀಡಿದ ಫೋಟೋ ಗುರುತಿನ ಚೀಟಿಗಳು</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSU ನಿಂದ ನೀಡಲಾದ ಸೇವಾ ಫೋಟೋ ID ಕಾರ್ಡ್‌ಗಳು</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಶಸ್ತ್ರಾಸ್ತ್ರ ಪರವಾನಗಿ</t>
+    <t>ಮತದಾರರ ಗುರುತಿನ ಚೀಟಿ</t>
+  </si>
+  <si>
+    <t>ಅರ್ಜಿದಾರರ ಚಾಲನಾ ಪರವಾನಗಿ</t>
+  </si>
+  <si>
+    <t>ಸರ್ಕಾರವು ನೀಡಿದ ಫೋಟೋ ಗುರುತಿನ ಚೀಟಿಗಳು</t>
+  </si>
+  <si>
+    <t>PSU ನಿಂದ ನೀಡಲಾದ ಸೇವಾ ಫೋಟೋ ID ಕಾರ್ಡ್‌ಗಳು</t>
+  </si>
+  <si>
+    <t>ಶಸ್ತ್ರಾಸ್ತ್ರ ಪರವಾನಗಿ</t>
   </si>
   <si>
     <t xml:space="preserve">ಫೋಟೋ ಬ್ಯಾಂಕ್ ATM ಕಾರ್ಡ್ </t>
   </si>
   <si>
-    <t xml:space="preserve">ಫೋಟೋ ಬ್ಯಾಂಕ್ ATM ಕಾರ್ಡ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಫೋಟೋ ಕ್ರೆಡಿಟ್ ಕಾರ್ಡ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸ್ವಾತಂತ್ರ್ಯ ಹೋರಾಟಗಾರನ ಫೋಟೋ ಕಾರ್ಡ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಮದುವೆಯ ಪ್ರಮಾಣಪತ್ರ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪಾಸ್ಬುಕ್ ಅಥವಾ ಬ್ಯಾಂಕ್ ಸ್ಟೇಟ್ಮೆಂಟ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪೋಸ್ಟ್ ಆಫೀಸ್‌ನ ಖಾತೆ ಹೇಳಿಕೆ ಅಥವಾ ಪಾಸ್‌ಬುಕ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪಡಿತರ ಚೀಟಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSU ವಿಳಾಸದೊಂದಿಗೆ ಸೇವಾ ಫೋಟೋ ID ಕಾರ್ಡ್ ಅನ್ನು ನೀಡಿದೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಹಿಂದಿನ 3 ತಿಂಗಳ ವಿದ್ಯುತ್ ಬಿಲ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೀರಿನ ಬಿಲ್ 3 ತಿಂಗಳಿಗಿಂತ ಹೆಚ್ಚು ಹಳೆಯದಾಗಿಲ್ಲ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDS ಕಾರ್ಡ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ರಾಜ್ಯ ಸರ್ಕಾರ, CGHS, ECHS ಮತ್ತು ESIC ನೀಡುವ ವೈದ್ಯಕೀಯ ಕಾರ್ಡ್</t>
+    <t>ಫೋಟೋ ಬ್ಯಾಂಕ್ ATM ಕಾರ್ಡ್</t>
+  </si>
+  <si>
+    <t>ಫೋಟೋ ಕ್ರೆಡಿಟ್ ಕಾರ್ಡ್</t>
+  </si>
+  <si>
+    <t>ಸ್ವಾತಂತ್ರ್ಯ ಹೋರಾಟಗಾರನ ಫೋಟೋ ಕಾರ್ಡ್</t>
+  </si>
+  <si>
+    <t>ಮದುವೆಯ ಪ್ರಮಾಣಪತ್ರ</t>
+  </si>
+  <si>
+    <t>ಪಾಸ್ಬುಕ್ ಅಥವಾ ಬ್ಯಾಂಕ್ ಸ್ಟೇಟ್ಮೆಂಟ್</t>
+  </si>
+  <si>
+    <t>ಪೋಸ್ಟ್ ಆಫೀಸ್‌ನ ಖಾತೆ ಹೇಳಿಕೆ ಅಥವಾ ಪಾಸ್‌ಬುಕ್</t>
+  </si>
+  <si>
+    <t>ಪಡಿತರ ಚೀಟಿ</t>
+  </si>
+  <si>
+    <t>PSU ವಿಳಾಸದೊಂದಿಗೆ ಸೇವಾ ಫೋಟೋ ID ಕಾರ್ಡ್ ಅನ್ನು ನೀಡಿದೆ</t>
+  </si>
+  <si>
+    <t>ಹಿಂದಿನ 3 ತಿಂಗಳ ವಿದ್ಯುತ್ ಬಿಲ್</t>
+  </si>
+  <si>
+    <t>ನೀರಿನ ಬಿಲ್ 3 ತಿಂಗಳಿಗಿಂತ ಹೆಚ್ಚು ಹಳೆಯದಾಗಿಲ್ಲ</t>
+  </si>
+  <si>
+    <t>PDS ಕಾರ್ಡ್</t>
+  </si>
+  <si>
+    <t>ರಾಜ್ಯ ಸರ್ಕಾರ, CGHS, ECHS ಮತ್ತು ESIC ನೀಡುವ ವೈದ್ಯಕೀಯ ಕಾರ್ಡ್</t>
   </si>
   <si>
     <t xml:space="preserve">ಸೇನೆಯ ಕ್ಯಾಂಟೀನ್ ಕಾರ್ಡ್ </t>
   </si>
   <si>
-    <t xml:space="preserve">ಸೇನೆಯ ಕ್ಯಾಂಟೀನ್ ಕಾರ್ಡ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಕುಟುಂಬದ ಹಕ್ಕು ದಾಖಲೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಯಾವುದೇ ಕೇಂದ್ರ ಅಥವಾ ರಾಜ್ಯ ಸರ್ಕಾರದಿಂದ ನೀಡಲಾದ ಯಾವುದೇ ಕುಟುಂಬದ ಹಕ್ಕು ದಾಖಲೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಜನನ/ಪುರಸಭೆಯ ರಿಜಿಸ್ಟ್ರಾರ್ ಅಥವಾ ಯಾವುದೇ ಸ್ಥಳೀಯ ಸರ್ಕಾರದ ಜನನ ಪ್ರಮಾಣಪತ್ರ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ವಿನಾಯಿತಿ ಫೋಟೋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">संदर्भ पहचान पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">भाड़े का अनुबंध</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पते का रेंटल एग्रीमेंट</t>
-  </si>
-  <si>
-    <t xml:space="preserve">निवास का प्रमाण पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">निवासी का प्रमाण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पासपोर्ट</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पहचान का प्रमाण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">रिश्ते का प्रमाण पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">किसी व्यक्ति का प्रमाण संबंध</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म का प्रमाण पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">किसी व्यक्ति का जन्म और आयु का प्रमाण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अपवाद का प्रमाणन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पैन कार्ड</t>
-  </si>
-  <si>
-    <t xml:space="preserve">या तो राशन या पीडीएस फोटो कार्ड</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मतदाता पहचान पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">आवेदक का ड्राइविंग लाइसेंस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सरकार द्वारा जारी फोटो पहचान पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हथियारों का लाइसेंस</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोटो बैंक एटीएम कार्ड</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोटो क्रेडिट कार्ड</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वतंत्रता सेनानी का फोटो कार्ड</t>
-  </si>
-  <si>
-    <t xml:space="preserve">शादी का प्रमाण पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पासबुक या बैंक स्टेटमेंट</t>
-  </si>
-  <si>
-    <t xml:space="preserve">डाकघर का खाता विवरण या पासबुक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">राशन पत्रिका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पीएसयू ने पते के साथ सर्विस फोटो आईडी कार्ड जारी किया</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पिछले 3 महीने का बिजली बिल</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पानी का बिल जब तक कि वह 3 महीने से अधिक पुराना न हो</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पीडीएस कार्ड</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सेना का कैंटीन कार्ड</t>
-  </si>
-  <si>
-    <t xml:space="preserve">परिवार के अधिकार का दस्तावेज</t>
-  </si>
-  <si>
-    <t xml:space="preserve">किसी भी केंद्र या राज्य सरकार द्वारा जारी किया गया कोई भी परिवार पात्रता दस्तावेज</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म प्रमाणपत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म / नगर निगम के रजिस्ट्रार या किसी स्थानीय सरकार का जन्म प्रमाण पत्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अपवाद फोटो</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">குறிப்பு அடையாள அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">வாடகை ஒப்பந்தம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">முகவரியின் வாடகை ஒப்பந்தம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">குடியிருப்பு சான்றிதழ்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">குடியுரிமைச் சான்று</t>
-  </si>
-  <si>
-    <t xml:space="preserve">கடவுச்சீட்டு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">அடையாளச் சான்று</t>
-  </si>
-  <si>
-    <t xml:space="preserve">உறவுச் சான்றிதழ்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ஒரு நபரின் உறவு ஆதாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பிறப்புச் சான்றிதழ்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ஒரு நபரின் பிறப்பு மற்றும் வயது ஆதாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">விதிவிலக்கு சான்றிதழ்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பான் கார்டு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ரேஷன் அல்லது PDS புகைப்பட அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">வாக்காளர் அடையாள அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">விண்ணப்பதாரரின் ஓட்டுநர் உரிமம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">அரசாங்கத்தால் வழங்கப்பட்ட புகைப்பட அடையாள அட்டைகள்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ஆயுத உரிமம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">புகைப்பட வங்கி ஏடிஎம் அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">புகைப்பட கடன் அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">சுதந்திரப் போராட்ட வீரரின் புகைப்பட அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">திருமணச் சான்றிதழ்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பாஸ்புக் அல்லது வங்கி அறிக்கை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">தபால் அலுவலகத்தின் கணக்கு அறிக்கை அல்லது பாஸ்புக்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ரேஷன் கார்டு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">முந்தைய 3 மாத மின் கட்டணம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">தண்ணீர் கட்டணம் 3 மாதங்களுக்கு மிகாமல் இருக்கும் வரை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDS அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">மாநில அரசு, CGHS, ECHS மற்றும் ESIC வழங்கும் மருத்துவ அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">இராணுவத்தின் கேண்டீன் அட்டை</t>
-  </si>
-  <si>
-    <t xml:space="preserve">குடும்ப உரிமை ஆவணம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">மத்திய அல்லது மாநில அரசால் வழங்கப்பட்ட குடும்ப உரிமை ஆவணம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பிறப்பு சான்றிதழ்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பிறப்பு/நகராட்சிக் கழகத்தின் பதிவாளர் அல்லது ஏதேனும் உள்ளூர் அரசாங்க பிறப்புச் சான்றிதழ்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">விதிவிலக்கு புகைப்படம்</t>
+    <t>ಸೇನೆಯ ಕ್ಯಾಂಟೀನ್ ಕಾರ್ಡ್</t>
+  </si>
+  <si>
+    <t>ಕುಟುಂಬದ ಹಕ್ಕು ದಾಖಲೆ</t>
+  </si>
+  <si>
+    <t>ಯಾವುದೇ ಕೇಂದ್ರ ಅಥವಾ ರಾಜ್ಯ ಸರ್ಕಾರದಿಂದ ನೀಡಲಾದ ಯಾವುದೇ ಕುಟುಂಬದ ಹಕ್ಕು ದಾಖಲೆ</t>
+  </si>
+  <si>
+    <t>ಜನನ/ಪುರಸಭೆಯ ರಿಜಿಸ್ಟ್ರಾರ್ ಅಥವಾ ಯಾವುದೇ ಸ್ಥಳೀಯ ಸರ್ಕಾರದ ಜನನ ಪ್ರಮಾಣಪತ್ರ</t>
+  </si>
+  <si>
+    <t>ವಿನಾಯಿತಿ ಫೋಟೋ</t>
+  </si>
+  <si>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>संदर्भ पहचान पत्र</t>
+  </si>
+  <si>
+    <t>भाड़े का अनुबंध</t>
+  </si>
+  <si>
+    <t>पते का रेंटल एग्रीमेंट</t>
+  </si>
+  <si>
+    <t>निवास का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>निवासी का प्रमाण</t>
+  </si>
+  <si>
+    <t>पासपोर्ट</t>
+  </si>
+  <si>
+    <t>पहचान का प्रमाण</t>
+  </si>
+  <si>
+    <t>रिश्ते का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>किसी व्यक्ति का प्रमाण संबंध</t>
+  </si>
+  <si>
+    <t>जन्म का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>किसी व्यक्ति का जन्म और आयु का प्रमाण</t>
+  </si>
+  <si>
+    <t>अपवाद का प्रमाणन</t>
+  </si>
+  <si>
+    <t>पैन कार्ड</t>
+  </si>
+  <si>
+    <t>या तो राशन या पीडीएस फोटो कार्ड</t>
+  </si>
+  <si>
+    <t>मतदाता पहचान पत्र</t>
+  </si>
+  <si>
+    <t>आवेदक का ड्राइविंग लाइसेंस</t>
+  </si>
+  <si>
+    <t>सरकार द्वारा जारी फोटो पहचान पत्र</t>
+  </si>
+  <si>
+    <t>हथियारों का लाइसेंस</t>
+  </si>
+  <si>
+    <t>फोटो बैंक एटीएम कार्ड</t>
+  </si>
+  <si>
+    <t>फोटो क्रेडिट कार्ड</t>
+  </si>
+  <si>
+    <t>स्वतंत्रता सेनानी का फोटो कार्ड</t>
+  </si>
+  <si>
+    <t>शादी का प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>पासबुक या बैंक स्टेटमेंट</t>
+  </si>
+  <si>
+    <t>डाकघर का खाता विवरण या पासबुक</t>
+  </si>
+  <si>
+    <t>राशन पत्रिका</t>
+  </si>
+  <si>
+    <t>पीएसयू ने पते के साथ सर्विस फोटो आईडी कार्ड जारी किया</t>
+  </si>
+  <si>
+    <t>पिछले 3 महीने का बिजली बिल</t>
+  </si>
+  <si>
+    <t>पानी का बिल जब तक कि वह 3 महीने से अधिक पुराना न हो</t>
+  </si>
+  <si>
+    <t>पीडीएस कार्ड</t>
+  </si>
+  <si>
+    <t>सेना का कैंटीन कार्ड</t>
+  </si>
+  <si>
+    <t>परिवार के अधिकार का दस्तावेज</t>
+  </si>
+  <si>
+    <t>किसी भी केंद्र या राज्य सरकार द्वारा जारी किया गया कोई भी परिवार पात्रता दस्तावेज</t>
+  </si>
+  <si>
+    <t>जन्म प्रमाणपत्र</t>
+  </si>
+  <si>
+    <t>जन्म / नगर निगम के रजिस्ट्रार या किसी स्थानीय सरकार का जन्म प्रमाण पत्र</t>
+  </si>
+  <si>
+    <t>अपवाद फोटो</t>
+  </si>
+  <si>
+    <t>tam</t>
+  </si>
+  <si>
+    <t>குறிப்பு அடையாள அட்டை</t>
+  </si>
+  <si>
+    <t>வாடகை ஒப்பந்தம்</t>
+  </si>
+  <si>
+    <t>முகவரியின் வாடகை ஒப்பந்தம்</t>
+  </si>
+  <si>
+    <t>குடியிருப்பு சான்றிதழ்</t>
+  </si>
+  <si>
+    <t>குடியுரிமைச் சான்று</t>
+  </si>
+  <si>
+    <t>கடவுச்சீட்டு</t>
+  </si>
+  <si>
+    <t>அடையாளச் சான்று</t>
+  </si>
+  <si>
+    <t>உறவுச் சான்றிதழ்</t>
+  </si>
+  <si>
+    <t>ஒரு நபரின் உறவு ஆதாரம்</t>
+  </si>
+  <si>
+    <t>பிறப்புச் சான்றிதழ்</t>
+  </si>
+  <si>
+    <t>ஒரு நபரின் பிறப்பு மற்றும் வயது ஆதாரம்</t>
+  </si>
+  <si>
+    <t>விதிவிலக்கு சான்றிதழ்</t>
+  </si>
+  <si>
+    <t>பான் கார்டு</t>
+  </si>
+  <si>
+    <t>ரேஷன் அல்லது PDS புகைப்பட அட்டை</t>
+  </si>
+  <si>
+    <t>வாக்காளர் அடையாள அட்டை</t>
+  </si>
+  <si>
+    <t>விண்ணப்பதாரரின் ஓட்டுநர் உரிமம்</t>
+  </si>
+  <si>
+    <t>அரசாங்கத்தால் வழங்கப்பட்ட புகைப்பட அடையாள அட்டைகள்</t>
+  </si>
+  <si>
+    <t>ஆயுத உரிமம்</t>
+  </si>
+  <si>
+    <t>புகைப்பட வங்கி ஏடிஎம் அட்டை</t>
+  </si>
+  <si>
+    <t>புகைப்பட கடன் அட்டை</t>
+  </si>
+  <si>
+    <t>சுதந்திரப் போராட்ட வீரரின் புகைப்பட அட்டை</t>
+  </si>
+  <si>
+    <t>திருமணச் சான்றிதழ்</t>
+  </si>
+  <si>
+    <t>பாஸ்புக் அல்லது வங்கி அறிக்கை</t>
+  </si>
+  <si>
+    <t>தபால் அலுவலகத்தின் கணக்கு அறிக்கை அல்லது பாஸ்புக்</t>
+  </si>
+  <si>
+    <t>ரேஷன் கார்டு</t>
+  </si>
+  <si>
+    <t>முந்தைய 3 மாத மின் கட்டணம்</t>
+  </si>
+  <si>
+    <t>தண்ணீர் கட்டணம் 3 மாதங்களுக்கு மிகாமல் இருக்கும் வரை</t>
+  </si>
+  <si>
+    <t>PDS அட்டை</t>
+  </si>
+  <si>
+    <t>மாநில அரசு, CGHS, ECHS மற்றும் ESIC வழங்கும் மருத்துவ அட்டை</t>
+  </si>
+  <si>
+    <t>இராணுவத்தின் கேண்டீன் அட்டை</t>
+  </si>
+  <si>
+    <t>குடும்ப உரிமை ஆவணம்</t>
+  </si>
+  <si>
+    <t>மத்திய அல்லது மாநில அரசால் வழங்கப்பட்ட குடும்ப உரிமை ஆவணம்</t>
+  </si>
+  <si>
+    <t>பிறப்பு சான்றிதழ்</t>
+  </si>
+  <si>
+    <t>பிறப்பு/நகராட்சிக் கழகத்தின் பதிவாளர் அல்லது ஏதேனும் உள்ளூர் அரசாங்க பிறப்புச் சான்றிதழ்</t>
+  </si>
+  <si>
+    <t>விதிவிலக்கு புகைப்படம்</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>Contrato de renta</t>
+  </si>
+  <si>
+    <t>Contrato de alquiler de domicilio</t>
+  </si>
+  <si>
+    <t>Certificado de residencia</t>
+  </si>
+  <si>
+    <t>Prueba de residente</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Prueba de identidad</t>
+  </si>
+  <si>
+    <t>Certificado de Relación</t>
+  </si>
+  <si>
+    <t>Relación de prueba de una persona.</t>
+  </si>
+  <si>
+    <t>Certificado de nacimiento</t>
+  </si>
+  <si>
+    <t>Prueba de nacimiento y edad de una persona.</t>
+  </si>
+  <si>
+    <t>Certificación de excepción</t>
+  </si>
+  <si>
+    <t>Certificado de excepción</t>
+  </si>
+  <si>
+    <t>Tarjeta de la cacerola</t>
+  </si>
+  <si>
+    <t>Tarjeta Ration o PDS Photo</t>
+  </si>
+  <si>
+    <t>Tarjeta de identificación de elector</t>
+  </si>
+  <si>
+    <t>Licencia de conducir del solicitante</t>
+  </si>
+  <si>
+    <t>Tarjetas de identificación con fotografía emitidas por el Gobierno.</t>
+  </si>
+  <si>
+    <t>Tarjetas de identificación con fotografía de servicio emitidas por una fuente de alimentación</t>
+  </si>
+  <si>
+    <t>Licencia de Armas</t>
+  </si>
+  <si>
+    <t>Tarjeta de cajero automático de Photo Bank</t>
+  </si>
+  <si>
+    <t>Tarjeta de crédito con foto</t>
+  </si>
+  <si>
+    <t>Tarjeta fotográfica del luchador por la libertad.</t>
+  </si>
+  <si>
+    <t>Acta de matrimonio</t>
+  </si>
+  <si>
+    <t>Libreta o extracto bancario</t>
+  </si>
+  <si>
+    <t>Estado de cuenta o libreta de Correos</t>
+  </si>
+  <si>
+    <t>Cartilla de racionamiento</t>
+  </si>
+  <si>
+    <t>Tarjeta de identificación de servicio con fotografía emitida por la PSU y dirección</t>
+  </si>
+  <si>
+    <t>Factura de luz de los 3 meses anteriores</t>
+  </si>
+  <si>
+    <t>Factura de agua siempre que no tenga más de 3 meses de antigüedad.</t>
+  </si>
+  <si>
+    <t>Tarjeta PDS</t>
+  </si>
+  <si>
+    <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y ESIC</t>
+  </si>
+  <si>
+    <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y también ESIC</t>
+  </si>
+  <si>
+    <t>Tarjeta de comedor del ejército.</t>
+  </si>
+  <si>
+    <t>Documento de derecho familiar</t>
+  </si>
+  <si>
+    <t>Cualquier documento de derecho familiar emitido por cualquier gobierno central o estatal.</t>
+  </si>
+  <si>
+    <t>Registrador de Nacimiento/Corporación Municipal o cualquier Certificado de Nacimiento del gobierno local</t>
+  </si>
+  <si>
+    <t>Foto de expedición</t>
+  </si>
+  <si>
+    <t>Tarjeta de Identidad de Referencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -837,25 +955,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -868,108 +970,374 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.85"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.36328125" customWidth="1"/>
+    <col min="4" max="4" width="58.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -986,3011 +1354,3511 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>82</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>86</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>93</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>101</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>102</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>103</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>105</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>106</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>107</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>108</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>109</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>110</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>111</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>112</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>113</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>115</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>116</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>117</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>118</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>120</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>121</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>123</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>124</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>126</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>126</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>128</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>129</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>131</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>132</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>133</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>134</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>135</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>136</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>136</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>137</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>138</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>139</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>140</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>141</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>141</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>142</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>143</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>144</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>144</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>145</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>146</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>147</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>147</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>148</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>148</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>149</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>150</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>151</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>152</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>152</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>153</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>154</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>155</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>156</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>153</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>157</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>158</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>153</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>159</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>160</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>153</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>161</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>162</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>153</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>163</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>164</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>165</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>153</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>166</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>153</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>167</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>153</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>168</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>153</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>170</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>153</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>171</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>171</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>153</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>172</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>153</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>173</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>153</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>174</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>153</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>176</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>153</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>177</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>153</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>178</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>153</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>179</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>153</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>180</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>153</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>181</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>153</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>182</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>153</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>183</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>153</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>184</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>184</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>153</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>185</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>153</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>186</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>153</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>187</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>188</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>153</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>189</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>190</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>153</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>163</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>191</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>153</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>192</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>193</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>194</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>193</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>195</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>196</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>197</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>198</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>193</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>199</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" t="s">
         <v>200</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>193</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>201</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" t="s">
         <v>202</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>193</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>203</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" t="s">
         <v>204</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>193</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>205</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>193</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>206</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>193</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>207</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>193</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>208</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="4" t="s">
         <v>208</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>193</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>209</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>193</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>210</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>193</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>211</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>193</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>212</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>193</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>213</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>193</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>214</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>193</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>215</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>193</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" t="s">
         <v>216</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="4" t="s">
         <v>216</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>193</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>217</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="4" t="s">
         <v>217</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>193</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" t="s">
         <v>218</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>193</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" t="s">
         <v>219</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>193</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>220</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>220</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>193</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>221</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="4" t="s">
         <v>221</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>193</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" t="s">
         <v>222</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="4" t="s">
         <v>222</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>193</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" t="s">
         <v>223</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="4" t="s">
         <v>223</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>193</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" t="s">
         <v>224</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" t="s">
         <v>225</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>193</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>226</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" t="s">
         <v>227</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>193</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" t="s">
         <v>228</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>228</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>229</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" t="s">
         <v>230</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>229</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" t="s">
         <v>231</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" t="s">
         <v>232</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>229</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" t="s">
         <v>233</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" t="s">
         <v>234</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>229</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>235</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" t="s">
         <v>236</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>229</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>237</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" t="s">
         <v>238</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>229</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>239</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" t="s">
         <v>240</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>229</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>241</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>229</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>242</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="4" t="s">
         <v>242</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>229</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="4" t="s">
         <v>243</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>229</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>229</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="4" t="s">
         <v>245</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>229</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>229</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" t="s">
         <v>247</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="4" t="s">
         <v>247</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>229</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>229</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="4" t="s">
         <v>249</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>229</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>229</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" t="s">
         <v>251</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>229</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>229</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>229</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>229</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>229</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="4" t="s">
         <v>256</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>229</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="4" t="s">
         <v>257</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>229</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="4" t="s">
         <v>258</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>229</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="4" t="s">
         <v>259</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>229</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="4" t="s">
         <v>261</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>229</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>229</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>265</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>266</v>
+      </c>
+      <c r="D178" t="s">
+        <v>267</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" t="s">
+        <v>268</v>
+      </c>
+      <c r="D179" t="s">
+        <v>269</v>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>265</v>
+      </c>
+      <c r="B180" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" t="s">
+        <v>270</v>
+      </c>
+      <c r="D180" t="s">
+        <v>271</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>265</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s">
+        <v>272</v>
+      </c>
+      <c r="D181" t="s">
+        <v>273</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>265</v>
+      </c>
+      <c r="B182" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182" t="s">
+        <v>274</v>
+      </c>
+      <c r="D182" t="s">
+        <v>275</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>265</v>
+      </c>
+      <c r="B183" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183" t="s">
+        <v>276</v>
+      </c>
+      <c r="D183" t="s">
+        <v>277</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>265</v>
+      </c>
+      <c r="B184" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" t="s">
+        <v>278</v>
+      </c>
+      <c r="D184" t="s">
+        <v>278</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>265</v>
+      </c>
+      <c r="B185" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" t="s">
+        <v>279</v>
+      </c>
+      <c r="D185" t="s">
+        <v>279</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>265</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" t="s">
+        <v>280</v>
+      </c>
+      <c r="D186" t="s">
+        <v>280</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>265</v>
+      </c>
+      <c r="B187" t="s">
+        <v>59</v>
+      </c>
+      <c r="C187" t="s">
+        <v>281</v>
+      </c>
+      <c r="D187" t="s">
+        <v>281</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>265</v>
+      </c>
+      <c r="B188" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" t="s">
+        <v>282</v>
+      </c>
+      <c r="D188" t="s">
+        <v>282</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>265</v>
+      </c>
+      <c r="B189" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" t="s">
+        <v>283</v>
+      </c>
+      <c r="D189" t="s">
+        <v>283</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>265</v>
+      </c>
+      <c r="B190" t="s">
+        <v>65</v>
+      </c>
+      <c r="C190" t="s">
+        <v>284</v>
+      </c>
+      <c r="D190" t="s">
+        <v>284</v>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>265</v>
+      </c>
+      <c r="B191" t="s">
+        <v>67</v>
+      </c>
+      <c r="C191" t="s">
+        <v>285</v>
+      </c>
+      <c r="D191" t="s">
+        <v>285</v>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>265</v>
+      </c>
+      <c r="B192" t="s">
+        <v>69</v>
+      </c>
+      <c r="C192" t="s">
+        <v>286</v>
+      </c>
+      <c r="D192" t="s">
+        <v>286</v>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>265</v>
+      </c>
+      <c r="B193" t="s">
+        <v>71</v>
+      </c>
+      <c r="C193" t="s">
+        <v>287</v>
+      </c>
+      <c r="D193" t="s">
+        <v>287</v>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>265</v>
+      </c>
+      <c r="B194" t="s">
+        <v>73</v>
+      </c>
+      <c r="C194" t="s">
+        <v>288</v>
+      </c>
+      <c r="D194" t="s">
+        <v>288</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>265</v>
+      </c>
+      <c r="B195" t="s">
+        <v>75</v>
+      </c>
+      <c r="C195" t="s">
+        <v>289</v>
+      </c>
+      <c r="D195" t="s">
+        <v>289</v>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" t="s">
+        <v>77</v>
+      </c>
+      <c r="C196" t="s">
+        <v>290</v>
+      </c>
+      <c r="D196" t="s">
+        <v>290</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>265</v>
+      </c>
+      <c r="B197" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" t="s">
+        <v>291</v>
+      </c>
+      <c r="D197" t="s">
+        <v>291</v>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>265</v>
+      </c>
+      <c r="B198" t="s">
+        <v>81</v>
+      </c>
+      <c r="C198" t="s">
+        <v>292</v>
+      </c>
+      <c r="D198" t="s">
+        <v>292</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>265</v>
+      </c>
+      <c r="B199" t="s">
+        <v>83</v>
+      </c>
+      <c r="C199" t="s">
+        <v>293</v>
+      </c>
+      <c r="D199" t="s">
+        <v>293</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" t="s">
+        <v>294</v>
+      </c>
+      <c r="D200" t="s">
+        <v>294</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>265</v>
+      </c>
+      <c r="B201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C201" t="s">
+        <v>295</v>
+      </c>
+      <c r="D201" t="s">
+        <v>295</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>265</v>
+      </c>
+      <c r="B202" t="s">
+        <v>89</v>
+      </c>
+      <c r="C202" t="s">
+        <v>296</v>
+      </c>
+      <c r="D202" t="s">
+        <v>297</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>265</v>
+      </c>
+      <c r="B203" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" t="s">
+        <v>298</v>
+      </c>
+      <c r="D203" t="s">
+        <v>298</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>265</v>
+      </c>
+      <c r="B204" t="s">
+        <v>94</v>
+      </c>
+      <c r="C204" t="s">
+        <v>299</v>
+      </c>
+      <c r="D204" t="s">
+        <v>300</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>265</v>
+      </c>
+      <c r="B205" t="s">
+        <v>97</v>
+      </c>
+      <c r="C205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D205" t="s">
+        <v>301</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206" t="s">
+        <v>125</v>
+      </c>
+      <c r="C206" t="s">
+        <v>302</v>
+      </c>
+      <c r="D206" t="s">
+        <v>302</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>303</v>
+      </c>
+      <c r="D207" t="s">
+        <v>303</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E91"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:E91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C37B5-C6D3-46E8-8B5E-67EFF4A8A100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BF4D05-B22E-416D-BC71-0B78228F668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="307">
   <si>
     <t>lang_code</t>
   </si>
@@ -918,9 +918,6 @@
     <t>Tarjeta PDS</t>
   </si>
   <si>
-    <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y ESIC</t>
-  </si>
-  <si>
     <t>Tarjeta médica emitida por el Gobierno del Estado, CGHS, ECHS y también ESIC</t>
   </si>
   <si>
@@ -940,6 +937,18 @@
   </si>
   <si>
     <t>Tarjeta de Identidad de Referencia</t>
+  </si>
+  <si>
+    <t>Tarjeta de idintotificación de elector</t>
+  </si>
+  <si>
+    <t>Tarjeta de identificación de servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarjeta médica emitida por el Gobierno del </t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4524,7 +4533,7 @@
         <v>61</v>
       </c>
       <c r="C188" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="D188" t="s">
         <v>282</v>
@@ -4541,7 +4550,7 @@
         <v>63</v>
       </c>
       <c r="C189" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D189" t="s">
         <v>283</v>
@@ -4694,7 +4703,7 @@
         <v>81</v>
       </c>
       <c r="C198" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D198" t="s">
         <v>292</v>
@@ -4728,7 +4737,7 @@
         <v>85</v>
       </c>
       <c r="C200" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D200" t="s">
         <v>294</v>
@@ -4762,10 +4771,10 @@
         <v>89</v>
       </c>
       <c r="C202" t="s">
+        <v>306</v>
+      </c>
+      <c r="D202" t="s">
         <v>296</v>
-      </c>
-      <c r="D202" t="s">
-        <v>297</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
@@ -4779,10 +4788,10 @@
         <v>92</v>
       </c>
       <c r="C203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E203" t="b">
         <v>1</v>
@@ -4796,10 +4805,10 @@
         <v>94</v>
       </c>
       <c r="C204" t="s">
+        <v>298</v>
+      </c>
+      <c r="D204" t="s">
         <v>299</v>
-      </c>
-      <c r="D204" t="s">
-        <v>300</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -4816,7 +4825,7 @@
         <v>274</v>
       </c>
       <c r="D205" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
@@ -4830,10 +4839,10 @@
         <v>125</v>
       </c>
       <c r="C206" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D206" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -4847,10 +4856,10 @@
         <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D207" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E207" t="b">
         <v>1</v>
